--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv\Webterv-main\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C596192E-89D3-4C4A-ABB3-B4019A0EA57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B55F4-EEC4-4EFD-ADD0-F206710A1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
   <si>
     <t>2. Általános szempontok (max. 45 pont)</t>
   </si>
@@ -244,9 +244,6 @@
     <t>Reszponzív dizájn - 10 pont</t>
   </si>
   <si>
-    <t>nem db-ra</t>
-  </si>
-  <si>
     <t>Felhasznált elemek (max: 45 pont)</t>
   </si>
   <si>
@@ -265,12 +262,6 @@
     <t>CSS használata - 16 pont</t>
   </si>
   <si>
-    <t>1 - 1</t>
-  </si>
-  <si>
-    <t>ha teljesül</t>
-  </si>
-  <si>
     <t>Multimédiás elemek - 2 pont</t>
   </si>
   <si>
@@ -289,59 +280,26 @@
     <t>Alapvető elemek: lásd a projekt követelmények pdf-ben!</t>
   </si>
   <si>
-    <t>0/1.3/2.5</t>
-  </si>
-  <si>
-    <t>0/1.9</t>
-  </si>
-  <si>
-    <t>0/0.6/1.9</t>
-  </si>
-  <si>
-    <t>0/1.3</t>
-  </si>
-  <si>
-    <t>0/2.5/5</t>
-  </si>
-  <si>
-    <t>Pontok      1 fős csapatnál</t>
-  </si>
-  <si>
-    <t>0/0.6</t>
-  </si>
-  <si>
-    <t>0 / 1.3</t>
-  </si>
-  <si>
-    <t>0/1.3/3.8</t>
-  </si>
-  <si>
-    <t>/1.6</t>
-  </si>
-  <si>
-    <t>/1.2</t>
-  </si>
-  <si>
     <t>index.html</t>
   </si>
   <si>
     <t>styles.css</t>
   </si>
   <si>
-    <t>1 (before)</t>
-  </si>
-  <si>
-    <t>1 (Video)</t>
+    <t>Szerzett pont</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Össz fix pont</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,16 +351,8 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +389,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -463,11 +425,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,15 +475,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -519,37 +488,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -558,9 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,16 +505,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,58 +861,57 @@
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="188.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="30"/>
+      <c r="A1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>80</v>
+      <c r="A2" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>82</v>
+      <c r="A3" s="17" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
@@ -981,9 +919,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="24" t="s">
-        <v>92</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
@@ -995,139 +931,134 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="37" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="32" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="29" t="str">
+        <f>IF(E9*B9=0,"",E9*B9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="37" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="32" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="29" t="str">
+        <f t="shared" ref="G10:G65" si="0">IF(E10*B10=0,"",E10*B10)</f>
+        <v/>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="37" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="32" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="37" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="32" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="32" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="37" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="37">
-        <v>1</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="37">
-        <v>1</v>
-      </c>
-      <c r="H14" s="32" t="s">
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="37" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="32" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1137,86 +1068,89 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19">
         <v>2</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="23">
         <v>2</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="37">
-        <v>1</v>
-      </c>
-      <c r="H17" s="32" t="s">
+      <c r="F17" s="23">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="37" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="32" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="37" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="32" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="37" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="23">
         <v>2</v>
       </c>
-      <c r="F20" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="37">
-        <v>1</v>
-      </c>
-      <c r="H20" s="32" t="s">
+      <c r="F20" s="23">
+        <v>1</v>
+      </c>
+      <c r="G20" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1226,64 +1160,66 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="37" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="23">
         <v>6</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="32" t="s">
+      <c r="F22" s="24"/>
+      <c r="G22" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="37" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="23">
         <v>2</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="41">
+      <c r="F23" s="23">
         <v>2</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="G23" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="37" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="32" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1293,816 +1229,847 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="37" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="23">
         <v>5</v>
       </c>
-      <c r="F26" s="38">
-        <f t="shared" ref="F26" si="0">E26/1.6</f>
-        <v>3.125</v>
-      </c>
-      <c r="G26" s="37">
+      <c r="F26" s="23">
         <v>2</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="G26" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>69</v>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="20">
         <v>2</v>
       </c>
-      <c r="F29" s="34">
-        <f>E29/1.2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G29" s="33">
-        <v>1</v>
-      </c>
-      <c r="H29" s="32" t="s">
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
+      <c r="G29" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="20">
         <v>2</v>
       </c>
-      <c r="F30" s="34">
-        <f t="shared" ref="F30:F65" si="1">E30/1.2</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G30" s="33">
-        <v>1</v>
-      </c>
-      <c r="H30" s="32" t="s">
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="20">
         <v>2</v>
       </c>
-      <c r="F31" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G31" s="33">
-        <v>1</v>
-      </c>
-      <c r="H31" s="32" t="s">
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E32" s="20">
         <v>2</v>
       </c>
-      <c r="F32" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G32" s="33">
-        <v>1</v>
-      </c>
-      <c r="H32" s="32" t="s">
+      <c r="F32" s="20">
+        <v>1</v>
+      </c>
+      <c r="G32" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="20">
         <v>2</v>
       </c>
-      <c r="F33" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G33" s="33">
-        <v>1</v>
-      </c>
-      <c r="H33" s="32" t="s">
+      <c r="F33" s="20">
+        <v>1</v>
+      </c>
+      <c r="G33" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H33" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="23"/>
+      <c r="G34" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19">
         <v>3</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="33">
-        <v>1</v>
-      </c>
-      <c r="F35" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G35" s="33">
+      <c r="E35" s="20">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20">
         <v>3</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="G35" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H35" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="G36" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="33">
+      <c r="E37" s="20">
         <v>2</v>
       </c>
-      <c r="F37" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G37" s="33">
-        <v>1</v>
-      </c>
-      <c r="H37" s="32" t="s">
+      <c r="F37" s="20">
+        <v>1</v>
+      </c>
+      <c r="G37" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="33">
-        <v>1</v>
-      </c>
-      <c r="F38" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G38" s="33">
-        <v>1</v>
-      </c>
-      <c r="H38" s="32" t="s">
+      <c r="E38" s="20">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20">
+        <v>1</v>
+      </c>
+      <c r="G38" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H38" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="33">
-        <v>1</v>
-      </c>
-      <c r="F39" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G39" s="33">
-        <v>1</v>
-      </c>
-      <c r="H39" s="32" t="s">
+      <c r="E39" s="20">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20">
+        <v>1</v>
+      </c>
+      <c r="G39" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H39" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="G40" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32">
-        <v>1</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="33" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="33">
-        <v>1</v>
-      </c>
-      <c r="F41" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G41" s="33">
-        <v>1</v>
-      </c>
-      <c r="H41" s="32" t="s">
+      <c r="E41" s="20">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32">
-        <v>1</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="33" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
+        <v>1</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="33">
-        <v>1</v>
-      </c>
-      <c r="F42" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G42" s="33">
-        <v>1</v>
-      </c>
-      <c r="H42" s="32" t="s">
+      <c r="E42" s="20">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20">
+        <v>1</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32">
-        <v>1</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="33" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="33">
-        <v>1</v>
-      </c>
-      <c r="F43" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G43" s="33">
-        <v>1</v>
-      </c>
-      <c r="H43" s="32" t="s">
+      <c r="E43" s="20">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20">
+        <v>1</v>
+      </c>
+      <c r="G43" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32">
-        <v>1</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="33" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
+        <v>1</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="33">
-        <v>1</v>
-      </c>
-      <c r="F44" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G44" s="33">
-        <v>1</v>
-      </c>
-      <c r="H44" s="32" t="s">
+      <c r="E44" s="20">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20">
+        <v>1</v>
+      </c>
+      <c r="G44" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32">
-        <v>1</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="33" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19">
+        <v>1</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="33">
-        <v>1</v>
-      </c>
-      <c r="F45" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G45" s="33">
-        <v>1</v>
-      </c>
-      <c r="H45" s="32" t="s">
+      <c r="E45" s="20">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20">
+        <v>1</v>
+      </c>
+      <c r="G45" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32">
-        <v>1</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="33" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="33">
-        <v>1</v>
-      </c>
-      <c r="F46" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G46" s="33">
-        <v>1</v>
-      </c>
-      <c r="H46" s="32" t="s">
+      <c r="E46" s="20">
+        <v>1</v>
+      </c>
+      <c r="F46" s="20">
+        <v>1</v>
+      </c>
+      <c r="G46" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19">
+        <v>1</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="33">
-        <v>1</v>
-      </c>
-      <c r="F47" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G47" s="33">
-        <v>1</v>
-      </c>
-      <c r="H47" s="32" t="s">
+      <c r="E47" s="20">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20">
+        <v>1</v>
+      </c>
+      <c r="G47" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
         <v>2</v>
       </c>
-      <c r="C48" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="33" t="s">
+      <c r="C48" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="33">
-        <v>1</v>
-      </c>
-      <c r="F48" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H48" s="32" t="s">
+      <c r="E48" s="20">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" s="33" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19">
+        <v>2</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="33">
-        <v>1</v>
-      </c>
-      <c r="F49" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G49" s="33">
+      <c r="E49" s="20">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20">
         <v>2</v>
       </c>
-      <c r="H49" s="32" t="s">
+      <c r="G49" s="29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="20">
         <v>2</v>
       </c>
-      <c r="F50" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G50" s="33">
-        <v>1</v>
-      </c>
-      <c r="H50" s="32" t="s">
+      <c r="F50" s="20">
+        <v>1</v>
+      </c>
+      <c r="G50" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="20">
         <v>3</v>
       </c>
-      <c r="F51" s="34">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="32" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H51" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F52" s="23"/>
+        <v>74</v>
+      </c>
+      <c r="G52" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="33" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19">
+        <v>1</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="33">
-        <v>1</v>
-      </c>
-      <c r="F53" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" s="32" t="s">
+      <c r="E53" s="20">
+        <v>1</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F54" s="23"/>
+        <v>75</v>
+      </c>
+      <c r="G54" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19">
         <v>4</v>
       </c>
-      <c r="C55" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="33" t="s">
+      <c r="C55" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="33">
-        <v>1</v>
-      </c>
-      <c r="F55" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G55" s="33">
+      <c r="E55" s="20">
+        <v>1</v>
+      </c>
+      <c r="F55" s="20">
         <v>4</v>
       </c>
-      <c r="H55" s="32" t="s">
+      <c r="G55" s="29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H55" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="33">
-        <v>1</v>
-      </c>
-      <c r="F56" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G56" s="33">
-        <v>1</v>
-      </c>
-      <c r="H56" s="32" t="s">
+      <c r="E56" s="20">
+        <v>1</v>
+      </c>
+      <c r="F56" s="20">
+        <v>1</v>
+      </c>
+      <c r="G56" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H56" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32">
-        <v>1</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="33" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="33">
+      <c r="E57" s="20">
         <v>3</v>
       </c>
-      <c r="F57" s="34">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="G57" s="33">
-        <v>1</v>
-      </c>
-      <c r="H57" s="32" t="s">
+      <c r="F57" s="20">
+        <v>1</v>
+      </c>
+      <c r="G57" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H57" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F58" s="23"/>
+        <v>76</v>
+      </c>
+      <c r="G58" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32">
-        <v>1</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="33" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19">
+        <v>1</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="33">
-        <v>1</v>
-      </c>
-      <c r="F59" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G59" s="33">
-        <v>1</v>
-      </c>
-      <c r="H59" s="32" t="s">
+      <c r="E59" s="20">
+        <v>1</v>
+      </c>
+      <c r="F59" s="20">
+        <v>1</v>
+      </c>
+      <c r="G59" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="32">
-        <v>1</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="33" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19">
+        <v>1</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="33">
-        <v>1</v>
-      </c>
-      <c r="F60" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G60" s="33">
-        <v>1</v>
-      </c>
-      <c r="H60" s="32" t="s">
+      <c r="E60" s="20">
+        <v>1</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1</v>
+      </c>
+      <c r="G60" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32">
-        <v>1</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="33" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19">
+        <v>1</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="33">
-        <v>1</v>
-      </c>
-      <c r="F61" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G61" s="33">
-        <v>1</v>
-      </c>
-      <c r="H61" s="32" t="s">
+      <c r="E61" s="20">
+        <v>1</v>
+      </c>
+      <c r="F61" s="20">
+        <v>1</v>
+      </c>
+      <c r="G61" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="32">
-        <v>1</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" s="33" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19">
+        <v>1</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="33">
-        <v>1</v>
-      </c>
-      <c r="F62" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G62" s="33">
-        <v>1</v>
-      </c>
-      <c r="H62" s="32" t="s">
+      <c r="E62" s="20">
+        <v>1</v>
+      </c>
+      <c r="F62" s="20">
+        <v>1</v>
+      </c>
+      <c r="G62" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19">
         <v>3</v>
       </c>
-      <c r="C63" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="33" t="s">
+      <c r="C63" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="33">
-        <v>1</v>
-      </c>
-      <c r="F63" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G63" s="33">
+      <c r="E63" s="20">
+        <v>1</v>
+      </c>
+      <c r="F63" s="20">
         <v>3</v>
       </c>
-      <c r="H63" s="32" t="s">
+      <c r="G63" s="29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H63" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32">
-        <v>1</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="33" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19">
+        <v>1</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="33">
-        <v>1</v>
-      </c>
-      <c r="F64" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G64" s="33">
-        <v>1</v>
-      </c>
-      <c r="H64" s="32" t="s">
+      <c r="E64" s="20">
+        <v>1</v>
+      </c>
+      <c r="F64" s="20">
+        <v>1</v>
+      </c>
+      <c r="G64" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H64" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="33" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="33">
-        <v>1</v>
-      </c>
-      <c r="F65" s="34">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G65" s="33">
+      <c r="E65" s="20">
+        <v>1</v>
+      </c>
+      <c r="F65" s="20">
         <v>2</v>
       </c>
-      <c r="H65" s="32" t="s">
+      <c r="G65" s="29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H65" s="19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F67" s="26"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="28">
+        <f>SUM(G9:G65)</f>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv\Webterv-main\etc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv-1\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B55F4-EEC4-4EFD-ADD0-F206710A1DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD780D-794F-4D08-854F-94236557955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>2. Általános szempontok (max. 45 pont)</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Össz fix pont</t>
+  </si>
+  <si>
+    <t>selfService.html</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -508,17 +514,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,10 +872,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -882,10 +888,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -944,7 +950,7 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="29" t="str">
+      <c r="G9" s="27" t="str">
         <f>IF(E9*B9=0,"",E9*B9)</f>
         <v/>
       </c>
@@ -961,7 +967,7 @@
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="29" t="str">
+      <c r="G10" s="27" t="str">
         <f t="shared" ref="G10:G65" si="0">IF(E10*B10=0,"",E10*B10)</f>
         <v/>
       </c>
@@ -978,7 +984,7 @@
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="29" t="str">
+      <c r="G11" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -995,7 +1001,7 @@
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="29" t="str">
+      <c r="G12" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1012,7 +1018,7 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="29" t="str">
+      <c r="G13" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1037,7 +1043,7 @@
       <c r="F14" s="23">
         <v>1</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1054,7 +1060,7 @@
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="29" t="str">
+      <c r="G15" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1069,7 +1075,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="29" t="str">
+      <c r="G16" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1077,7 +1083,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>80</v>
@@ -1091,9 +1097,9 @@
       <c r="F17" s="23">
         <v>1</v>
       </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>11</v>
@@ -1108,7 +1114,7 @@
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="29" t="str">
+      <c r="G18" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1125,7 +1131,7 @@
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="29" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1146,7 +1152,7 @@
       <c r="F20" s="23">
         <v>1</v>
       </c>
-      <c r="G20" s="29" t="str">
+      <c r="G20" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1161,7 +1167,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="29" t="str">
+      <c r="G21" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1177,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="29" t="str">
+      <c r="G22" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1198,7 +1204,7 @@
       <c r="F23" s="23">
         <v>2</v>
       </c>
-      <c r="G23" s="29" t="str">
+      <c r="G23" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1215,7 +1221,7 @@
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="29" t="str">
+      <c r="G24" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="29" t="str">
+      <c r="G25" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1248,7 +1254,7 @@
       <c r="F26" s="23">
         <v>2</v>
       </c>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1265,7 +1271,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="29" t="str">
+      <c r="G27" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1276,15 +1282,19 @@
         <v>69</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="29" t="str">
+      <c r="G28" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="19">
+        <v>1</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D29" s="20" t="s">
         <v>22</v>
       </c>
@@ -1294,9 +1304,9 @@
       <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="G29" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G29" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>19</v>
@@ -1304,8 +1314,12 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="19">
+        <v>1</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D30" s="20" t="s">
         <v>22</v>
       </c>
@@ -1315,9 +1329,9 @@
       <c r="F30" s="20">
         <v>1</v>
       </c>
-      <c r="G30" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G30" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>20</v>
@@ -1325,8 +1339,12 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="19">
+        <v>1</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D31" s="20" t="s">
         <v>22</v>
       </c>
@@ -1336,9 +1354,9 @@
       <c r="F31" s="20">
         <v>1</v>
       </c>
-      <c r="G31" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G31" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>21</v>
@@ -1346,8 +1364,12 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D32" s="20" t="s">
         <v>22</v>
       </c>
@@ -1357,9 +1379,9 @@
       <c r="F32" s="20">
         <v>1</v>
       </c>
-      <c r="G32" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G32" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H32" s="19" t="s">
         <v>23</v>
@@ -1367,8 +1389,12 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D33" s="20" t="s">
         <v>22</v>
       </c>
@@ -1378,9 +1404,9 @@
       <c r="F33" s="20">
         <v>1</v>
       </c>
-      <c r="G33" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G33" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H33" s="19" t="s">
         <v>24</v>
@@ -1391,7 +1417,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="G34" s="29" t="str">
+      <c r="G34" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1413,7 +1439,7 @@
       <c r="F35" s="20">
         <v>3</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1426,7 +1452,7 @@
         <v>72</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="G36" s="29" t="str">
+      <c r="G36" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1444,7 +1470,7 @@
       <c r="F37" s="20">
         <v>1</v>
       </c>
-      <c r="G37" s="29" t="str">
+      <c r="G37" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1465,7 +1491,7 @@
       <c r="F38" s="20">
         <v>1</v>
       </c>
-      <c r="G38" s="29" t="str">
+      <c r="G38" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1486,7 +1512,7 @@
       <c r="F39" s="20">
         <v>1</v>
       </c>
-      <c r="G39" s="29" t="str">
+      <c r="G39" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1498,7 +1524,7 @@
       <c r="A40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="29" t="str">
+      <c r="G40" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1520,7 +1546,7 @@
       <c r="F41" s="20">
         <v>1</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1545,7 +1571,7 @@
       <c r="F42" s="20">
         <v>1</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1570,7 +1596,7 @@
       <c r="F43" s="20">
         <v>1</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1595,7 +1621,7 @@
       <c r="F44" s="20">
         <v>1</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1620,7 +1646,7 @@
       <c r="F45" s="20">
         <v>1</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1645,7 +1671,7 @@
       <c r="F46" s="20">
         <v>1</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1670,7 +1696,7 @@
       <c r="F47" s="20">
         <v>1</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1695,7 +1721,7 @@
       <c r="F48" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1720,7 +1746,7 @@
       <c r="F49" s="20">
         <v>2</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1741,7 +1767,7 @@
       <c r="F50" s="20">
         <v>1</v>
       </c>
-      <c r="G50" s="29" t="str">
+      <c r="G50" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1760,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="22"/>
-      <c r="G51" s="29" t="str">
+      <c r="G51" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1772,7 +1798,7 @@
       <c r="A52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="29" t="str">
+      <c r="G52" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1792,9 +1818,9 @@
         <v>1</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G53" s="29">
+        <v>86</v>
+      </c>
+      <c r="G53" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1806,7 +1832,7 @@
       <c r="A54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="29" t="str">
+      <c r="G54" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1828,7 +1854,7 @@
       <c r="F55" s="20">
         <v>4</v>
       </c>
-      <c r="G55" s="29">
+      <c r="G55" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1838,8 +1864,12 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="19">
+        <v>1</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="D56" s="20" t="s">
         <v>9</v>
       </c>
@@ -1849,9 +1879,9 @@
       <c r="F56" s="20">
         <v>1</v>
       </c>
-      <c r="G56" s="29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G56" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>40</v>
@@ -1874,7 +1904,7 @@
       <c r="F57" s="20">
         <v>1</v>
       </c>
-      <c r="G57" s="29">
+      <c r="G57" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1886,7 +1916,7 @@
       <c r="A58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="29" t="str">
+      <c r="G58" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1908,7 +1938,7 @@
       <c r="F59" s="20">
         <v>1</v>
       </c>
-      <c r="G59" s="29">
+      <c r="G59" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1933,7 +1963,7 @@
       <c r="F60" s="20">
         <v>1</v>
       </c>
-      <c r="G60" s="29">
+      <c r="G60" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1958,7 +1988,7 @@
       <c r="F61" s="20">
         <v>1</v>
       </c>
-      <c r="G61" s="29">
+      <c r="G61" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1983,7 +2013,7 @@
       <c r="F62" s="20">
         <v>1</v>
       </c>
-      <c r="G62" s="29">
+      <c r="G62" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2008,7 +2038,7 @@
       <c r="F63" s="20">
         <v>3</v>
       </c>
-      <c r="G63" s="29">
+      <c r="G63" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2033,7 +2063,7 @@
       <c r="F64" s="20">
         <v>1</v>
       </c>
-      <c r="G64" s="29">
+      <c r="G64" s="27">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2054,7 +2084,7 @@
       <c r="F65" s="20">
         <v>2</v>
       </c>
-      <c r="G65" s="29" t="str">
+      <c r="G65" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2063,12 +2093,12 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="26">
         <f>SUM(G9:G65)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv-1\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD780D-794F-4D08-854F-94236557955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8952A-9538-4BD1-8762-B7D4BC03A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv-1\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC8952A-9538-4BD1-8762-B7D4BC03A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894A902-6013-4336-963E-CA35DE3A0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
   <si>
     <t>2. Általános szempontok (max. 45 pont)</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>1 személyre</t>
   </si>
 </sst>
 </file>
@@ -408,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -431,22 +434,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -514,10 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +514,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,10 +867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -888,10 +883,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -950,7 +945,7 @@
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="25" t="str">
         <f>IF(E9*B9=0,"",E9*B9)</f>
         <v/>
       </c>
@@ -967,7 +962,7 @@
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="25" t="str">
         <f t="shared" ref="G10:G65" si="0">IF(E10*B10=0,"",E10*B10)</f>
         <v/>
       </c>
@@ -984,7 +979,7 @@
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1001,7 +996,7 @@
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1018,7 +1013,7 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1043,7 +1038,7 @@
       <c r="F14" s="23">
         <v>1</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1060,7 +1055,7 @@
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1075,7 +1070,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1097,8 +1092,8 @@
       <c r="F17" s="23">
         <v>1</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" si="0"/>
+      <c r="G17" s="25">
+        <f>IF(E17*B17=0,"",E17*B17)</f>
         <v>2</v>
       </c>
       <c r="H17" s="19" t="s">
@@ -1114,9 +1109,8 @@
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G18" s="25">
+        <v>2</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>12</v>
@@ -1131,9 +1125,8 @@
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G19" s="25">
+        <v>2</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>13</v>
@@ -1152,7 +1145,7 @@
       <c r="F20" s="23">
         <v>1</v>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1167,7 +1160,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1183,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="27" t="str">
+      <c r="G22" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1204,7 +1197,7 @@
       <c r="F23" s="23">
         <v>2</v>
       </c>
-      <c r="G23" s="27" t="str">
+      <c r="G23" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1221,7 +1214,7 @@
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="27" t="str">
+      <c r="G24" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1236,7 +1229,7 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1254,7 +1247,7 @@
       <c r="F26" s="23">
         <v>2</v>
       </c>
-      <c r="G26" s="27" t="str">
+      <c r="G26" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1271,7 +1264,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1282,7 +1275,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="27" t="str">
+      <c r="G28" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1304,7 +1297,7 @@
       <c r="F29" s="20">
         <v>1</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1329,7 +1322,7 @@
       <c r="F30" s="20">
         <v>1</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1354,7 +1347,7 @@
       <c r="F31" s="20">
         <v>1</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1379,7 +1372,7 @@
       <c r="F32" s="20">
         <v>1</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1404,7 +1397,7 @@
       <c r="F33" s="20">
         <v>1</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1417,7 +1410,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="G34" s="27" t="str">
+      <c r="G34" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1439,7 +1432,7 @@
       <c r="F35" s="20">
         <v>3</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1452,7 +1445,7 @@
         <v>72</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="G36" s="27" t="str">
+      <c r="G36" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1470,7 +1463,7 @@
       <c r="F37" s="20">
         <v>1</v>
       </c>
-      <c r="G37" s="27" t="str">
+      <c r="G37" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1491,7 +1484,7 @@
       <c r="F38" s="20">
         <v>1</v>
       </c>
-      <c r="G38" s="27" t="str">
+      <c r="G38" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1512,7 +1505,7 @@
       <c r="F39" s="20">
         <v>1</v>
       </c>
-      <c r="G39" s="27" t="str">
+      <c r="G39" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1524,7 +1517,7 @@
       <c r="A40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="27" t="str">
+      <c r="G40" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1546,7 +1539,7 @@
       <c r="F41" s="20">
         <v>1</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1571,7 +1564,7 @@
       <c r="F42" s="20">
         <v>1</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1596,7 +1589,7 @@
       <c r="F43" s="20">
         <v>1</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1621,7 +1614,7 @@
       <c r="F44" s="20">
         <v>1</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1646,7 +1639,7 @@
       <c r="F45" s="20">
         <v>1</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1671,7 +1664,7 @@
       <c r="F46" s="20">
         <v>1</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1696,7 +1689,7 @@
       <c r="F47" s="20">
         <v>1</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1721,7 +1714,7 @@
       <c r="F48" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1746,7 +1739,7 @@
       <c r="F49" s="20">
         <v>2</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1767,7 +1760,7 @@
       <c r="F50" s="20">
         <v>1</v>
       </c>
-      <c r="G50" s="27" t="str">
+      <c r="G50" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1786,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="22"/>
-      <c r="G51" s="27" t="str">
+      <c r="G51" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1798,7 +1791,7 @@
       <c r="A52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="27" t="str">
+      <c r="G52" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1820,7 +1813,7 @@
       <c r="F53" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1832,7 +1825,7 @@
       <c r="A54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="27" t="str">
+      <c r="G54" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1854,7 +1847,7 @@
       <c r="F55" s="20">
         <v>4</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1879,7 +1872,7 @@
       <c r="F56" s="20">
         <v>1</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1904,7 +1897,7 @@
       <c r="F57" s="20">
         <v>1</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1916,7 +1909,7 @@
       <c r="A58" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G58" s="27" t="str">
+      <c r="G58" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1938,7 +1931,7 @@
       <c r="F59" s="20">
         <v>1</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1963,7 +1956,7 @@
       <c r="F60" s="20">
         <v>1</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1988,7 +1981,7 @@
       <c r="F61" s="20">
         <v>1</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2013,7 +2006,7 @@
       <c r="F62" s="20">
         <v>1</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2038,7 +2031,7 @@
       <c r="F63" s="20">
         <v>3</v>
       </c>
-      <c r="G63" s="27">
+      <c r="G63" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2063,7 +2056,7 @@
       <c r="F64" s="20">
         <v>1</v>
       </c>
-      <c r="G64" s="27">
+      <c r="G64" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2084,7 +2077,7 @@
       <c r="F65" s="20">
         <v>2</v>
       </c>
-      <c r="G65" s="27" t="str">
+      <c r="G65" s="25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2093,12 +2086,19 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F68" s="25" t="s">
+      <c r="D68" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G68" s="26">
+      <c r="E68" s="29">
         <f>SUM(G9:G65)</f>
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="30">
+        <f>E68/2</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv-1\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894A902-6013-4336-963E-CA35DE3A0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72625829-B5EF-428C-94D6-922127C5A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>2. Általános szempontok (max. 45 pont)</t>
   </si>
@@ -509,18 +509,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,10 +867,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -883,10 +883,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1103,7 +1103,9 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D18" s="23" t="s">
         <v>22</v>
       </c>
@@ -1119,7 +1121,9 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D19" s="23" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +1754,9 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="C50" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D50" s="20" t="s">
         <v>22</v>
       </c>
@@ -1760,9 +1766,8 @@
       <c r="F50" s="20">
         <v>1</v>
       </c>
-      <c r="G50" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G50" s="25">
+        <v>2</v>
       </c>
       <c r="H50" s="19" t="s">
         <v>48</v>
@@ -2086,19 +2091,19 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="27">
         <f>SUM(G9:G65)</f>
-        <v>48</v>
-      </c>
-      <c r="F68" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G68" s="28">
         <f>E68/2</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv-1\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72625829-B5EF-428C-94D6-922127C5A05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AD24D-27BB-4481-BF77-659E826298AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
   <si>
     <t>2. Általános szempontok (max. 45 pont)</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>1 személyre</t>
+  </si>
+  <si>
+    <t>kutyaink.html</t>
   </si>
 </sst>
 </file>
@@ -852,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,8 +1193,12 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="19">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D23" s="23" t="s">
         <v>4</v>
       </c>
@@ -1201,9 +1208,9 @@
       <c r="F23" s="23">
         <v>2</v>
       </c>
-      <c r="G23" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G23" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>50</v>
@@ -1456,8 +1463,12 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D37" s="20" t="s">
         <v>22</v>
       </c>
@@ -1467,9 +1478,9 @@
       <c r="F37" s="20">
         <v>1</v>
       </c>
-      <c r="G37" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G37" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="H37" s="19" t="s">
         <v>25</v>
@@ -1477,8 +1488,12 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D38" s="20" t="s">
         <v>9</v>
       </c>
@@ -1488,9 +1503,9 @@
       <c r="F38" s="20">
         <v>1</v>
       </c>
-      <c r="G38" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G38" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>27</v>
@@ -1498,8 +1513,12 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>88</v>
+      </c>
       <c r="D39" s="20" t="s">
         <v>9</v>
       </c>
@@ -1509,9 +1528,9 @@
       <c r="F39" s="20">
         <v>1</v>
       </c>
-      <c r="G39" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G39" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>28</v>
@@ -2096,14 +2115,14 @@
       </c>
       <c r="E68" s="27">
         <f>SUM(G9:G65)</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>87</v>
       </c>
       <c r="G68" s="28">
         <f>E68/2</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/etc/merfoldko_01_elem_lista.xlsx
+++ b/etc/merfoldko_01_elem_lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csiko\Documents\Coding\Webterv-1\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6AD24D-27BB-4481-BF77-659E826298AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEBE754-E416-469C-9F67-D542332EB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>2. Általános szempontok (max. 45 pont)</t>
   </si>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,9 +1016,8 @@
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G13" s="25">
+        <v>2</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>6</v>
@@ -1058,9 +1057,8 @@
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G15" s="25">
+        <v>4</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>52</v>
@@ -1258,9 +1256,8 @@
       <c r="F26" s="23">
         <v>2</v>
       </c>
-      <c r="G26" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G26" s="25">
+        <v>10</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>17</v>
@@ -2090,8 +2087,12 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
+      <c r="B65" s="19">
+        <v>1</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="D65" s="20" t="s">
         <v>37</v>
       </c>
@@ -2101,9 +2102,9 @@
       <c r="F65" s="20">
         <v>2</v>
       </c>
-      <c r="G65" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="G65" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>56</v>
@@ -2115,14 +2116,14 @@
       </c>
       <c r="E68" s="27">
         <f>SUM(G9:G65)</f>
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>87</v>
       </c>
       <c r="G68" s="28">
         <f>E68/2</f>
-        <v>28</v>
+        <v>36.5</v>
       </c>
     </row>
   </sheetData>
